--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -420,6 +435,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -508,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -520,6 +538,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,265 +560,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -821,2125 +882,2446 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,70 +32,73 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>43.1</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -883,2445 +886,2445 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,24 +47,27 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -440,7 +443,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -529,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -541,7 +544,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -661,13 +664,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -684,13 +687,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -707,13 +710,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -730,13 +733,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -753,7 +756,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -776,7 +779,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -799,7 +802,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -822,7 +825,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -845,7 +848,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -867,2464 +870,2487 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>33</v>
+      <c r="C122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -416,22 +422,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -532,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1561,22 +1567,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>34</v>
@@ -1584,22 +1590,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>34</v>
@@ -1607,19 +1613,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1636,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1659,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1682,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1705,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1722,22 +1728,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>34</v>
@@ -1745,22 +1751,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>34</v>
@@ -1768,22 +1774,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>34</v>
@@ -1791,22 +1797,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1814,22 +1820,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1906,22 +1912,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
@@ -1975,22 +1981,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>34</v>
@@ -1998,22 +2004,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2021,22 +2027,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2113,10 +2119,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2125,7 +2131,7 @@
         <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2142,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2205,10 +2211,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>20</v>
@@ -2217,7 +2223,7 @@
         <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2228,10 +2234,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>20</v>
@@ -2240,7 +2246,7 @@
         <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2274,7 +2280,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>105</v>
@@ -2283,10 +2289,10 @@
         <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2303,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2389,10 +2395,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2401,7 +2407,7 @@
         <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2412,10 +2418,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2424,7 +2430,7 @@
         <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2711,22 +2717,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2734,19 +2740,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>22</v>
@@ -2757,599 +2763,668 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -449,7 +449,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -550,7 +553,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3318,7 +3321,7 @@
         <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>20</v>
@@ -3338,19 +3341,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3361,19 +3364,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>24</v>
@@ -3384,10 +3387,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
@@ -3396,7 +3399,7 @@
         <v>32</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3407,10 +3410,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>20</v>
@@ -3419,7 +3422,7 @@
         <v>99</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3321,7 +3318,7 @@
         <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>20</v>
@@ -3341,19 +3338,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3364,19 +3361,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>24</v>
@@ -3387,10 +3384,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
@@ -3399,7 +3396,7 @@
         <v>32</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3410,10 +3407,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>20</v>
@@ -3422,7 +3419,7 @@
         <v>99</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3318,7 +3321,7 @@
         <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>20</v>
@@ -3338,19 +3341,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3361,19 +3364,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>24</v>
@@ -3384,10 +3387,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
@@ -3396,7 +3399,7 @@
         <v>32</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3407,10 +3410,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>20</v>
@@ -3419,7 +3422,7 @@
         <v>99</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,36 @@
   </si>
   <si>
     <t>43.1,30</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -541,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -551,7 +581,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2122,19 +2152,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2145,22 +2175,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2168,19 +2198,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2191,22 +2221,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2214,22 +2244,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2237,19 +2267,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2290,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2313,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2336,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2359,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2382,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2405,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2428,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2451,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2474,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2497,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2520,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2543,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2566,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2589,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2612,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2635,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2658,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2681,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2704,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2727,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2750,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2743,22 +2773,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2766,22 +2796,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2789,19 +2819,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2812,622 +2842,829 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E124" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G124" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E125" s="2" t="s">
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -2595,7 +2595,7 @@
         <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>109</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -221,13 +227,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -571,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1623,22 +1629,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>34</v>
@@ -1646,22 +1652,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>34</v>
@@ -1669,19 +1675,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1721,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1744,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1767,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1784,22 +1790,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>34</v>
@@ -1807,19 +1813,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1836,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>21</v>
@@ -1853,22 +1859,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1876,22 +1882,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1899,22 +1905,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1922,19 +1928,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1991,22 +1997,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2043,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2060,22 +2066,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2083,22 +2089,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>34</v>
@@ -2106,22 +2112,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2175,22 +2181,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2227,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
@@ -2244,22 +2250,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2267,22 +2273,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2290,22 +2296,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2313,10 +2319,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2325,7 +2331,7 @@
         <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2428,10 +2434,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>20</v>
@@ -2440,7 +2446,7 @@
         <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2451,7 +2457,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>55</v>
@@ -2460,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>56</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2503,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2526,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2549,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2572,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2641,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2664,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2687,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2704,10 +2710,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2716,7 +2722,7 @@
         <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2727,10 +2733,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2739,7 +2745,7 @@
         <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2779,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2802,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2825,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2848,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2871,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2888,19 +2894,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2911,19 +2917,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2934,19 +2940,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2957,19 +2963,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2980,22 +2986,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3003,22 +3009,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3026,19 +3032,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3049,622 +3055,714 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C110" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B134" s="2" t="s">
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E134" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -577,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1652,22 +1658,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>34</v>
@@ -1675,22 +1681,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1836,22 +1842,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1859,22 +1865,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1882,22 +1888,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>21</v>
@@ -1928,22 +1934,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1997,22 +2003,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2112,22 +2118,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2135,22 +2141,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2158,22 +2164,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2227,22 +2233,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
@@ -2296,22 +2302,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2319,22 +2325,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2342,22 +2348,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2365,10 +2371,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2377,7 +2383,7 @@
         <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2463,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2480,10 +2486,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>20</v>
@@ -2492,7 +2498,7 @@
         <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2503,10 +2509,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>20</v>
@@ -2515,7 +2521,7 @@
         <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2549,7 +2555,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>119</v>
@@ -2558,10 +2564,10 @@
         <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2624,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2739,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2779,10 +2785,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2791,7 +2797,7 @@
         <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2802,10 +2808,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2814,7 +2820,7 @@
         <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2917,19 +2923,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2969,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3009,19 +3015,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3055,22 +3061,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3078,22 +3084,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3101,22 +3107,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3124,645 +3130,714 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -583,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1681,22 +1687,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1704,22 +1710,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1865,22 +1871,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1888,22 +1894,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1911,22 +1917,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>21</v>
@@ -1957,22 +1963,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2003,22 +2009,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2026,22 +2032,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>34</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2164,22 +2170,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2187,22 +2193,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2210,22 +2216,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2279,22 +2285,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -2348,22 +2354,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2371,22 +2377,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2394,22 +2400,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2417,10 +2423,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2429,7 +2435,7 @@
         <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2515,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2532,10 +2538,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>20</v>
@@ -2544,7 +2550,7 @@
         <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2555,10 +2561,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>20</v>
@@ -2567,7 +2573,7 @@
         <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2601,7 +2607,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>121</v>
@@ -2610,10 +2616,10 @@
         <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2831,10 +2837,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2843,7 +2849,7 @@
         <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2854,10 +2860,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2866,7 +2872,7 @@
         <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2906,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3090,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3107,22 +3113,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3130,22 +3136,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3153,22 +3159,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3176,668 +3182,737 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G137" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E141" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
@@ -221,9 +311,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -311,6 +398,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -350,6 +446,15 @@
     <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Soggetto</t>
   </si>
   <si>
@@ -359,9 +464,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -500,9 +602,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -531,6 +630,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -589,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1072,312 +1177,312 @@
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1388,19 +1493,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1411,19 +1516,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1434,19 +1539,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1457,19 +1562,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1480,19 +1585,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1608,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1631,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1654,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1677,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1700,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1723,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1746,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1769,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1792,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1710,22 +1815,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1733,19 +1838,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1861,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1884,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1907,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1930,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1953,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1976,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1894,22 +1999,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1917,19 +2022,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1940,22 +2045,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1963,22 +2068,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1986,19 +2091,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2009,306 +2114,306 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>102</v>
@@ -2317,7 +2422,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>103</v>
@@ -2326,12 +2431,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>104</v>
@@ -2340,21 +2445,21 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>106</v>
@@ -2363,7 +2468,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>107</v>
@@ -2372,12 +2477,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>108</v>
@@ -2386,21 +2491,21 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>110</v>
@@ -2409,220 +2514,220 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2630,19 +2735,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2758,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2781,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2804,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2827,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2850,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2873,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2791,22 +2896,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2814,19 +2919,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2837,22 +2942,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2860,22 +2965,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2883,19 +2988,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2906,19 +3011,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2932,19 +3037,19 @@
         <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2955,19 +3060,19 @@
         <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2978,16 +3083,16 @@
         <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3106,19 @@
         <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3024,16 +3129,16 @@
         <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3152,19 @@
         <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3070,16 +3175,16 @@
         <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3198,19 @@
         <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3116,19 +3221,19 @@
         <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3139,16 +3244,16 @@
         <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3267,19 @@
         <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3185,19 +3290,19 @@
         <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>34</v>
@@ -3208,16 +3313,16 @@
         <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3228,691 +3333,2324 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
+      <c r="F204" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -694,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2439,7 +2439,7 @@
         <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2448,7 +2448,7 @@
         <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2462,7 +2462,7 @@
         <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2471,7 +2471,7 @@
         <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2485,7 +2485,7 @@
         <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2494,7 +2494,7 @@
         <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2508,7 +2508,7 @@
         <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2517,7 +2517,7 @@
         <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2531,7 +2531,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2540,7 +2540,7 @@
         <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2554,7 +2554,7 @@
         <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2563,7 +2563,7 @@
         <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2577,7 +2577,7 @@
         <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2586,7 +2586,7 @@
         <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2600,7 +2600,7 @@
         <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2609,7 +2609,7 @@
         <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2623,7 +2623,7 @@
         <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2632,7 +2632,7 @@
         <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2646,7 +2646,7 @@
         <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2655,7 +2655,7 @@
         <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2669,7 +2669,7 @@
         <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2678,7 +2678,7 @@
         <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2689,25 +2689,25 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
@@ -2715,19 +2715,19 @@
         <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2738,16 +2738,16 @@
         <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2761,16 +2761,16 @@
         <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2784,7 +2784,7 @@
         <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>20</v>
@@ -2793,7 +2793,7 @@
         <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>20</v>
@@ -2816,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2830,7 +2830,7 @@
         <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>20</v>
@@ -2839,7 +2839,7 @@
         <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2853,16 +2853,16 @@
         <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2876,7 +2876,7 @@
         <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2885,10 +2885,10 @@
         <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2899,7 +2899,7 @@
         <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2908,10 +2908,10 @@
         <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2922,7 +2922,7 @@
         <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2931,10 +2931,10 @@
         <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2954,7 +2954,7 @@
         <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>21</v>
@@ -2968,19 +2968,19 @@
         <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2991,7 +2991,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>20</v>
@@ -3000,7 +3000,7 @@
         <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -3037,7 +3037,7 @@
         <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3046,7 +3046,7 @@
         <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -3060,7 +3060,7 @@
         <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3069,10 +3069,10 @@
         <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3083,7 +3083,7 @@
         <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3092,10 +3092,10 @@
         <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3106,7 +3106,7 @@
         <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3115,10 +3115,10 @@
         <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3129,7 +3129,7 @@
         <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3138,10 +3138,10 @@
         <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3152,7 +3152,7 @@
         <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3161,10 +3161,10 @@
         <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3175,7 +3175,7 @@
         <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3184,10 +3184,10 @@
         <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3198,7 +3198,7 @@
         <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3207,7 +3207,7 @@
         <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>21</v>
@@ -3221,19 +3221,19 @@
         <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3244,7 +3244,7 @@
         <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>20</v>
@@ -3253,7 +3253,7 @@
         <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3267,7 +3267,7 @@
         <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
@@ -3276,7 +3276,7 @@
         <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3290,16 +3290,16 @@
         <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3313,7 +3313,7 @@
         <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3322,10 +3322,10 @@
         <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>34</v>
@@ -3336,7 +3336,7 @@
         <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3345,10 +3345,10 @@
         <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>34</v>
@@ -3359,7 +3359,7 @@
         <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3368,10 +3368,10 @@
         <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3382,7 +3382,7 @@
         <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3391,7 +3391,7 @@
         <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>21</v>
@@ -3402,25 +3402,25 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
@@ -3428,16 +3428,16 @@
         <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3451,16 +3451,16 @@
         <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3474,16 +3474,16 @@
         <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3497,7 +3497,7 @@
         <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>20</v>
@@ -3506,7 +3506,7 @@
         <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3520,7 +3520,7 @@
         <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>20</v>
@@ -3529,7 +3529,7 @@
         <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3543,7 +3543,7 @@
         <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
@@ -3552,7 +3552,7 @@
         <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3566,16 +3566,16 @@
         <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3589,7 +3589,7 @@
         <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3598,7 +3598,7 @@
         <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3612,7 +3612,7 @@
         <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3621,7 +3621,7 @@
         <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3635,7 +3635,7 @@
         <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3644,7 +3644,7 @@
         <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3658,7 +3658,7 @@
         <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3667,7 +3667,7 @@
         <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3681,16 +3681,16 @@
         <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3704,7 +3704,7 @@
         <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>20</v>
@@ -3713,7 +3713,7 @@
         <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3727,16 +3727,16 @@
         <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3750,7 +3750,7 @@
         <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3759,7 +3759,7 @@
         <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3773,7 +3773,7 @@
         <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3782,7 +3782,7 @@
         <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3796,7 +3796,7 @@
         <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3805,7 +3805,7 @@
         <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3819,7 +3819,7 @@
         <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3828,7 +3828,7 @@
         <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3842,7 +3842,7 @@
         <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3851,7 +3851,7 @@
         <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3865,7 +3865,7 @@
         <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3874,7 +3874,7 @@
         <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3888,7 +3888,7 @@
         <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3897,7 +3897,7 @@
         <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3911,7 +3911,7 @@
         <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3920,7 +3920,7 @@
         <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3934,16 +3934,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3957,7 +3957,7 @@
         <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>20</v>
@@ -3966,7 +3966,7 @@
         <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3980,7 +3980,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>20</v>
@@ -3989,7 +3989,7 @@
         <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4003,16 +4003,16 @@
         <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4026,7 +4026,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4035,7 +4035,7 @@
         <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4049,7 +4049,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4058,7 +4058,7 @@
         <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4072,7 +4072,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4081,7 +4081,7 @@
         <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4095,7 +4095,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4104,7 +4104,7 @@
         <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4115,25 +4115,25 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
@@ -4141,16 +4141,16 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4164,16 +4164,16 @@
         <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4187,7 +4187,7 @@
         <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4196,7 +4196,7 @@
         <v>65</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4210,16 +4210,16 @@
         <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4233,16 +4233,16 @@
         <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4256,7 +4256,7 @@
         <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>20</v>
@@ -4265,7 +4265,7 @@
         <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4279,16 +4279,16 @@
         <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4302,7 +4302,7 @@
         <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>20</v>
@@ -4311,7 +4311,7 @@
         <v>65</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4325,16 +4325,16 @@
         <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4348,7 +4348,7 @@
         <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>20</v>
@@ -4357,7 +4357,7 @@
         <v>148</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4371,16 +4371,16 @@
         <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4394,7 +4394,7 @@
         <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4403,7 +4403,7 @@
         <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4417,7 +4417,7 @@
         <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4426,7 +4426,7 @@
         <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4440,7 +4440,7 @@
         <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4449,7 +4449,7 @@
         <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4463,16 +4463,16 @@
         <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4486,16 +4486,16 @@
         <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4509,7 +4509,7 @@
         <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4518,7 +4518,7 @@
         <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4532,7 +4532,7 @@
         <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4541,7 +4541,7 @@
         <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4555,7 +4555,7 @@
         <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4564,7 +4564,7 @@
         <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4578,16 +4578,16 @@
         <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4601,7 +4601,7 @@
         <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4610,7 +4610,7 @@
         <v>65</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4621,19 +4621,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4647,16 +4647,16 @@
         <v>165</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4670,16 +4670,16 @@
         <v>165</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4693,7 +4693,7 @@
         <v>165</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>20</v>
@@ -4702,7 +4702,7 @@
         <v>170</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4716,7 +4716,7 @@
         <v>165</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>20</v>
@@ -4725,7 +4725,7 @@
         <v>170</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4739,7 +4739,7 @@
         <v>165</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>20</v>
@@ -4748,7 +4748,7 @@
         <v>170</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4762,7 +4762,7 @@
         <v>165</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>20</v>
@@ -4771,7 +4771,7 @@
         <v>170</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4785,7 +4785,7 @@
         <v>165</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>20</v>
@@ -4794,7 +4794,7 @@
         <v>170</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4808,7 +4808,7 @@
         <v>165</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>20</v>
@@ -4817,7 +4817,7 @@
         <v>170</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4831,7 +4831,7 @@
         <v>165</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>20</v>
@@ -4840,7 +4840,7 @@
         <v>170</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4854,19 +4854,19 @@
         <v>165</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>34</v>
@@ -4877,7 +4877,7 @@
         <v>165</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4886,7 +4886,7 @@
         <v>170</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>22</v>
@@ -4900,19 +4900,19 @@
         <v>165</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>34</v>
@@ -4920,25 +4920,25 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185">
@@ -4946,19 +4946,19 @@
         <v>192</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>195</v>
@@ -4969,16 +4969,16 @@
         <v>192</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4992,16 +4992,16 @@
         <v>192</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5015,7 +5015,7 @@
         <v>192</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>20</v>
@@ -5024,7 +5024,7 @@
         <v>193</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5038,7 +5038,7 @@
         <v>192</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>20</v>
@@ -5047,7 +5047,7 @@
         <v>193</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5061,7 +5061,7 @@
         <v>192</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>20</v>
@@ -5070,7 +5070,7 @@
         <v>193</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5084,16 +5084,16 @@
         <v>192</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5107,7 +5107,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5116,10 +5116,10 @@
         <v>193</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>195</v>
@@ -5130,7 +5130,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5139,10 +5139,10 @@
         <v>193</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>195</v>
@@ -5153,7 +5153,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5162,10 +5162,10 @@
         <v>193</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>195</v>
@@ -5176,7 +5176,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5185,7 +5185,7 @@
         <v>193</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>194</v>
@@ -5199,19 +5199,19 @@
         <v>192</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>195</v>
@@ -5222,7 +5222,7 @@
         <v>192</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>20</v>
@@ -5231,7 +5231,7 @@
         <v>193</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5245,19 +5245,19 @@
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>195</v>
@@ -5268,7 +5268,7 @@
         <v>192</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5277,7 +5277,7 @@
         <v>193</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>194</v>
@@ -5291,7 +5291,7 @@
         <v>192</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5300,10 +5300,10 @@
         <v>193</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>195</v>
@@ -5314,7 +5314,7 @@
         <v>192</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5323,10 +5323,10 @@
         <v>193</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>195</v>
@@ -5337,7 +5337,7 @@
         <v>192</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5346,10 +5346,10 @@
         <v>193</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>195</v>
@@ -5360,7 +5360,7 @@
         <v>192</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5369,10 +5369,10 @@
         <v>193</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>195</v>
@@ -5383,7 +5383,7 @@
         <v>192</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5392,10 +5392,10 @@
         <v>193</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>195</v>
@@ -5406,7 +5406,7 @@
         <v>192</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5415,10 +5415,10 @@
         <v>193</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>195</v>
@@ -5429,7 +5429,7 @@
         <v>192</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5438,7 +5438,7 @@
         <v>193</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>194</v>
@@ -5452,19 +5452,19 @@
         <v>192</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>195</v>
@@ -5475,7 +5475,7 @@
         <v>192</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>20</v>
@@ -5484,7 +5484,7 @@
         <v>193</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5498,7 +5498,7 @@
         <v>192</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>20</v>
@@ -5507,7 +5507,7 @@
         <v>193</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5518,25 +5518,25 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
     </row>
     <row r="211">
@@ -5544,19 +5544,19 @@
         <v>196</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>34</v>
@@ -5567,19 +5567,19 @@
         <v>196</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>34</v>
@@ -5590,16 +5590,16 @@
         <v>196</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5613,44 +5613,21 @@
         <v>196</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -582,6 +582,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -694,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4903,7 +4909,7 @@
         <v>190</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>170</v>
@@ -4912,7 +4918,7 @@
         <v>191</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>34</v>
@@ -4920,643 +4926,643 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F184" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>34</v>
@@ -5564,22 +5570,22 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>34</v>
@@ -5587,7 +5593,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>204</v>
@@ -5596,7 +5602,7 @@
         <v>20</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>205</v>
@@ -5610,16 +5616,16 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>207</v>
@@ -5628,6 +5634,29 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -5231,7 +5231,7 @@
         <v>100</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>195</v>
@@ -5254,7 +5254,7 @@
         <v>102</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>195</v>
@@ -5263,7 +5263,7 @@
         <v>103</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>197</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_063.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="214">
   <si>
     <t>Sezione</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -700,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1778,7 +1790,7 @@
         <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1787,7 +1799,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1801,7 +1813,7 @@
         <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1810,7 +1822,7 @@
         <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1824,7 +1836,7 @@
         <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -2120,65 +2132,65 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2201,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2224,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2247,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2270,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2293,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2316,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2339,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2362,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2385,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2408,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2431,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2454,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2477,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2500,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2523,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2546,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2569,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2592,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2615,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2638,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2661,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2684,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2695,114 +2707,114 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2810,19 +2822,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2845,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2868,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2879,22 +2891,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2902,22 +2914,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2925,22 +2937,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2948,22 +2960,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2971,19 +2983,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2994,19 +3006,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3029,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>21</v>
@@ -3040,22 +3052,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -3063,22 +3075,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3086,19 +3098,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -3109,19 +3121,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3132,22 +3144,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3155,22 +3167,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3178,19 +3190,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
@@ -3201,22 +3213,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3224,22 +3236,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3247,19 +3259,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3270,22 +3282,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3293,19 +3305,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3316,19 +3328,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>21</v>
@@ -3339,22 +3351,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>34</v>
@@ -3362,22 +3374,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3385,22 +3397,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3408,916 +3420,916 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E151" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4328,19 +4340,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4351,19 +4363,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4374,19 +4386,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4397,19 +4409,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4420,19 +4432,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4443,19 +4455,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4466,10 +4478,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>20</v>
@@ -4478,7 +4490,7 @@
         <v>65</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4489,19 +4501,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4512,19 +4524,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4535,19 +4547,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4558,19 +4570,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4581,19 +4593,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4604,19 +4616,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4627,19 +4639,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4650,19 +4662,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4673,19 +4685,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4696,19 +4708,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4719,19 +4731,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4742,19 +4754,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4765,19 +4777,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4788,19 +4800,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4811,19 +4823,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4834,19 +4846,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4857,22 +4869,22 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>34</v>
@@ -4880,22 +4892,22 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>34</v>
@@ -4903,22 +4915,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>34</v>
@@ -4926,19 +4938,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4949,600 +4961,600 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C191" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211">
@@ -5550,22 +5562,22 @@
         <v>198</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="E211" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="212">
@@ -5573,22 +5585,22 @@
         <v>198</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F212" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G212" s="2" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213">
@@ -5596,22 +5608,22 @@
         <v>198</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214">
@@ -5619,22 +5631,22 @@
         <v>198</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215">
@@ -5642,21 +5654,251 @@
         <v>198</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="C223" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>34</v>
       </c>
     </row>
